--- a/Excel/SceneConfig@cs.xlsx
+++ b/Excel/SceneConfig@cs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -68,7 +68,7 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Scenes/MapScene/Sample.unity</t>
+    <t>scenes/mapscene/sample</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="C2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
